--- a/24_Tutoring/test_2_46_12001111930.xlsx
+++ b/24_Tutoring/test_2_46_12001111930.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haley/Desktop/Git/TIL/24_Tutoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890D46B0-1932-8F43-BFB9-3B3ADE0B6080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E3DEFF-4ABF-9341-9B29-B3821174A7FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>그럼 빨리 서둘러야겠군요.</t>
   </si>
   <si>
-    <t>We’d better hurry then.</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>f: 21</t>
+  </si>
+  <si>
+    <t>We’d better hurry then. (had better + 동사원형) : ~하는게 좋을걸?</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,6 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,11 +1051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="399" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1066,13 +1067,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1231,436 +1232,436 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>85</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>88</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>91</v>
-      </c>
-      <c r="D28" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>94</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>109</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>115</v>
-      </c>
-      <c r="D32" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>118</v>
-      </c>
-      <c r="D33" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>121</v>
-      </c>
-      <c r="D34" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>124</v>
-      </c>
-      <c r="D35" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>127</v>
-      </c>
-      <c r="D36" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>130</v>
-      </c>
-      <c r="D37" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>133</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>136</v>
-      </c>
-      <c r="D39" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>142</v>
-      </c>
-      <c r="D40" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>145</v>
-      </c>
-      <c r="D41" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>157</v>
-      </c>
-      <c r="D42" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>160</v>
-      </c>
-      <c r="D43" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1688,287 +1689,287 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>43</v>
-      </c>
-      <c r="D47" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>97</v>
-      </c>
-      <c r="D48" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>106</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="D51" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>139</v>
-      </c>
-      <c r="D52" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>148</v>
-      </c>
-      <c r="D53" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
         <v>150</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>151</v>
-      </c>
-      <c r="D54" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>154</v>
-      </c>
-      <c r="D55" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>163</v>
-      </c>
-      <c r="D56" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>166</v>
-      </c>
-      <c r="D57" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
         <v>168</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>169</v>
-      </c>
-      <c r="D58" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>172</v>
-      </c>
-      <c r="D59" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>175</v>
-      </c>
-      <c r="D60" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>178</v>
-      </c>
-      <c r="D61" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
         <v>180</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>181</v>
-      </c>
-      <c r="D62" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
         <v>183</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>184</v>
-      </c>
-      <c r="D63" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
         <v>186</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>187</v>
-      </c>
-      <c r="D64" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>190</v>
-      </c>
-      <c r="D65" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" t="s">
         <v>192</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" t="s">
-        <v>194</v>
-      </c>
-      <c r="D66" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
